--- a/fuentes/contenidos/grado11/guion06/Escaleta_MA_11_06_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion06/Escaleta_MA_11_06_CO.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado11\guion06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31170" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="292">
   <si>
     <t>Asignatura</t>
   </si>
@@ -512,6 +511,9 @@
     <t>Recursos M</t>
   </si>
   <si>
+    <t>Recurso M3A-01</t>
+  </si>
+  <si>
     <t>RM_01_01_CO</t>
   </si>
   <si>
@@ -524,9 +526,21 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
+    <t>Compara dos series de datos con las medidas estadísticas</t>
+  </si>
+  <si>
+    <t>Interactivo que permite practicar el cálculo de las medidas de tendencia central y de posición</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>Comparar dos series de datos con las medidas estadísticas</t>
+  </si>
+  <si>
+    <t>MT_10_10</t>
+  </si>
+  <si>
     <t>Halla las medidas de tendencia central</t>
   </si>
   <si>
@@ -689,15 +703,27 @@
     <t>Competencias: probabilidades con los grupos sanguíneos</t>
   </si>
   <si>
+    <t>Proyecto: La curva normal</t>
+  </si>
+  <si>
+    <t>Interactivo que propone un proyecto para usar la curva normal para el análisis de procesos</t>
+  </si>
+  <si>
     <t>Explicar el uso de la curva normal para solucionar situaciones y hacer análisis de procesos. Plantear al estudiante un proyecto para investigar un tema o situación y aplicar la curva normal.</t>
   </si>
   <si>
+    <t>Recurso F13-01</t>
+  </si>
+  <si>
     <t>Actividad para evaluar tus conocimientos sobre La estadística y la probabilidad</t>
   </si>
   <si>
     <t>Plantear ejercicios y situaciones problema para evaluar el tema de La estadística y la probabilidad</t>
   </si>
   <si>
+    <t>Recurso M5A-07</t>
+  </si>
+  <si>
     <t>Recurso M101AP-01</t>
   </si>
   <si>
@@ -746,6 +772,9 @@
     <t>Actividad para hallar probabilidades y funciones de distribución para variables aleatorias continuas</t>
   </si>
   <si>
+    <t>Proponer ejercicios para hallar probabilidades o la función de distribución atendiendo a la función de densidad o a situaciones problema que involucren variables aleatorias continuas.</t>
+  </si>
+  <si>
     <t>Recurso M7A-01</t>
   </si>
   <si>
@@ -833,15 +862,27 @@
     <t>Recurso M5A-03</t>
   </si>
   <si>
+    <t>Recurso M3A-02</t>
+  </si>
+  <si>
     <t>Recurso M4A-04</t>
   </si>
   <si>
+    <t>Recurso M4A-05</t>
+  </si>
+  <si>
     <t>Recurso M8A-04</t>
   </si>
   <si>
     <t>2Recurso M8A-02</t>
   </si>
   <si>
+    <t>Recurso M3A-03</t>
+  </si>
+  <si>
+    <t>Revisar la ficha del docente y del estudiante, cambiar los datos tomando diferentes números para cada una de las muestras con las cuales se trabaja, dado que da los mismos números para las dos.</t>
+  </si>
+  <si>
     <t>Proponer ejercicios en los cuales se solicite hallar el rango, la varianza o la desviación estándar de una muestra.</t>
   </si>
   <si>
@@ -860,59 +901,20 @@
     <t>Actividad sobre las variables aleatorias</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Caracteriza variables cualitativas</t>
-  </si>
-  <si>
-    <t>Actividad para caracterizar variables cualitativas utilizando tablas de frecuencia, gráficos o medidas de tendencia central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponer situaciones cuyos datos se encuentren organizados en una tabla de frecuencias completa (frecuencias absolutas, relativas, las acumuladas, los porentajes, etc) o en diagrama de barras o circulares y se pida por ejemplo conocer la moda, una frecuencia relativa particular de algún dato, el dato con mayor porcentaje, entre otros. Puede darse también el enunciado con la lista de datos y pedir al estudiante identificar la tabla de distribución que le corresponde o la gráfica. También se pueden presentar situaciones en a partir de una gráfica so tabla de distribución se den varias interpretaciones y el estudiante deba seleccionar la que considere se ajusta a los datos de manera más asertiva. Incluir situaciones con datos discretos y agrupados. El motor 5d, permite incluir solo texto o imágenes además de la opción de ampliar. </t>
-  </si>
-  <si>
-    <t>Proponer un estudio de una situación que considere el análisis de variables cuantitativas. Presentar datos organizados y preguntar por población y muestra; variable y tipo de variable, si aplica, preguntar por el tipo de muestreo, solicitar que se realice un diagrama estadístico conveniente para el análisis de la situación y los datos presentados, indicar que se halle la moda, la mediana y la media de los datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Actividad para caracterizar variables cuantitativas    </t>
-  </si>
-  <si>
-    <t>Proponer ejercicios para hallar probabilidades o la función de distribución atendiendo a la función de densidad o a situaciones problema que involucren variables aleatorias continuas. En la imagen de la izquierda se peuden sugerir imágenes del banco que hagan referencia a la situación planteada.</t>
-  </si>
-  <si>
-    <t>Recurso M5D-01</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-08</t>
-  </si>
-  <si>
-    <t>Proyecto: la curva normal</t>
-  </si>
-  <si>
-    <t>Actividad colaborativa en la que los estudiantes analizarán situaciones a tráves de la construcción o análisis de la curva normal</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-02</t>
-  </si>
-  <si>
-    <t>Recurso M5A-09</t>
-  </si>
-  <si>
-    <t>Recurso M3A-07</t>
-  </si>
-  <si>
-    <t>Recurso M5A-10</t>
+    <t>Analiza gráficas estadísticas</t>
+  </si>
+  <si>
+    <t>Actividad para analizar información a partir de la represenatción gráfica de datos</t>
+  </si>
+  <si>
+    <t>Proponer gráficos estadísticos para en los cuales se deduzca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,6 +948,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1081,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1092,27 +1124,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1122,9 +1142,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,27 +1202,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,12 +1220,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,6 +1300,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,6 +1463,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1445,6 +1515,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1621,3279 +1708,3129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U283"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="31" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="30" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="30" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="21" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="23" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="11" style="37" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="17.3984375" style="25" customWidth="1"/>
+    <col min="13" max="14" width="9.265625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="37.86328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3984375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="2.73046875" style="16" customWidth="1"/>
+    <col min="18" max="18" width="3.53125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="11.9296875" style="25" customWidth="1"/>
+    <col min="20" max="20" width="39.796875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
-    </row>
-    <row r="3" spans="1:21" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="33" t="s">
+      <c r="N3" s="26"/>
+      <c r="O3" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="77">
         <v>6</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="U3" s="77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="35">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="80">
+        <v>6</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="U4" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="35">
+        <v>3</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="80">
+        <v>6</v>
+      </c>
+      <c r="R5" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S5" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T5" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="U5" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="80">
+        <v>10</v>
+      </c>
+      <c r="R6" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="S6" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="T6" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="U6" s="80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="35">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="80">
+        <v>6</v>
+      </c>
+      <c r="R7" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S7" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="U7" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="35">
+        <v>6</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="80">
+        <v>6</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T8" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="U8" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="35">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q9" s="80">
+        <v>6</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T9" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="U9" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="35">
+        <v>8</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="80">
+        <v>6</v>
+      </c>
+      <c r="R10" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S10" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T10" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="U10" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="35">
+        <v>9</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="80">
+        <v>6</v>
+      </c>
+      <c r="R11" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="T11" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="U11" s="80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="35">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="80">
+        <v>6</v>
+      </c>
+      <c r="R12" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S12" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T12" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="U12" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="35">
+        <v>11</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" s="80">
+        <v>10</v>
+      </c>
+      <c r="R13" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="S13" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="T13" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="U13" s="80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="35">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="80">
+        <v>6</v>
+      </c>
+      <c r="R14" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S14" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T14" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="U14" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="35">
+        <v>13</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q15" s="80">
+        <v>6</v>
+      </c>
+      <c r="R15" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S15" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T15" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="U15" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="35">
+        <v>14</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="80">
+        <v>6</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S16" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T16" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="U16" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="35">
+        <v>15</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="80">
+        <v>6</v>
+      </c>
+      <c r="R17" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S17" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T17" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="U17" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="35">
+        <v>16</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="80">
+        <v>6</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S18" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T18" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="U18" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="35">
+        <v>17</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="27"/>
+      <c r="O19" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="80">
+        <v>6</v>
+      </c>
+      <c r="R19" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="S19" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="T19" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="U19" s="80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="35">
+        <v>18</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="80">
+        <v>6</v>
+      </c>
+      <c r="R20" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S20" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T20" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="U20" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="35">
+        <v>19</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="80">
+        <v>6</v>
+      </c>
+      <c r="R21" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S21" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T21" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="44">
-        <v>2</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="U21" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="35">
+        <v>20</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="K4" s="26" t="s">
+      <c r="J22" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="P4" s="19" t="s">
+      <c r="M22" s="27"/>
+      <c r="N22" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="P22" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q22" s="80">
         <v>6</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R22" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S22" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="U4" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="T22" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="U22" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B23" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C23" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="D23" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="35">
+        <v>21</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q23" s="80">
+        <v>6</v>
+      </c>
+      <c r="R23" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="T23" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="U23" s="80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="35">
+        <v>22</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="80">
+        <v>6</v>
+      </c>
+      <c r="R24" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T24" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="U24" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="44">
-        <v>3</v>
-      </c>
-      <c r="I5" s="20" t="s">
+    </row>
+    <row r="25" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="35">
+        <v>23</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="J25" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="80">
+        <v>6</v>
+      </c>
+      <c r="R25" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S25" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T25" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="U25" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="35">
+        <v>24</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" s="80">
+        <v>6</v>
+      </c>
+      <c r="R26" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S26" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T26" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="U26" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="35">
+        <v>25</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q27" s="80">
+        <v>6</v>
+      </c>
+      <c r="R27" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S27" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T27" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="U27" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="35">
+        <v>26</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="J28" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32" t="s">
+      <c r="M28" s="27"/>
+      <c r="N28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q28" s="80">
+        <v>6</v>
+      </c>
+      <c r="R28" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S28" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T28" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="U28" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="H29" s="35">
+        <v>27</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="P5" s="19" t="s">
+      <c r="O29" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="P29" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q29" s="80">
         <v>6</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R29" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S29" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="T5" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="U5" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="T29" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="U29" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B30" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C30" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="44">
-        <v>4</v>
-      </c>
-      <c r="I6" s="20" t="s">
+      <c r="D30" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" s="35">
+        <v>28</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="P30" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="K6" s="26" t="s">
+      <c r="Q30" s="80">
+        <v>6</v>
+      </c>
+      <c r="R30" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S30" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T30" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="U30" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="35">
+        <v>29</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="P31" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="Q31" s="80">
+        <v>6</v>
+      </c>
+      <c r="R31" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="S31" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="T31" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="U31" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="H32" s="35">
+        <v>30</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="80">
+        <v>10</v>
+      </c>
+      <c r="R32" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="S32" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="T32" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="U32" s="80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" s="35">
+        <v>31</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="P6" s="19" t="s">
+      <c r="M33" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="27"/>
+      <c r="O33" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q33" s="80">
+        <v>6</v>
+      </c>
+      <c r="R33" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="S33" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="T33" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="U33" s="80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="75"/>
+      <c r="E34" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="35">
+        <v>32</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="J34" s="18"/>
+      <c r="K34" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="80"/>
+    </row>
+    <row r="35" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="75"/>
+      <c r="E35" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="35">
+        <v>33</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q35" s="80">
         <v>6</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R35" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S35" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="T6" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="T35" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="U35" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B36" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C36" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="44">
-        <v>5</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="D36" s="75"/>
+      <c r="E36" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="35">
+        <v>34</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J7" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="26" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="P7" s="19" t="s">
+      <c r="M36" s="27"/>
+      <c r="N36" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="29"/>
+      <c r="P36" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q36" s="80">
         <v>6</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="R36" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S36" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="T7" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="U7" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="44">
-        <v>6</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>6</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T8" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="44">
-        <v>7</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>6</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T9" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="44">
-        <v>8</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>6</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="44">
-        <v>9</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="39">
-        <v>6</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="T11" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="U11" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="44">
-        <v>10</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="39">
-        <v>6</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T12" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="44">
-        <v>11</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q13" s="39">
-        <v>10</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="44">
-        <v>12</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="39">
-        <v>6</v>
-      </c>
-      <c r="R14" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T14" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="44">
-        <v>13</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q15" s="39">
-        <v>6</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S15" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T15" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="44">
-        <v>14</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="39">
-        <v>6</v>
-      </c>
-      <c r="R16" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S16" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T16" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="44">
-        <v>15</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q17" s="39">
-        <v>6</v>
-      </c>
-      <c r="R17" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S17" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T17" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H18" s="44">
-        <v>16</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q18" s="39">
-        <v>6</v>
-      </c>
-      <c r="R18" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S18" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T18" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="44">
-        <v>17</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="39">
-        <v>6</v>
-      </c>
-      <c r="R19" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="S19" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="T19" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="44">
-        <v>18</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="39">
-        <v>6</v>
-      </c>
-      <c r="R20" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T20" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="44">
-        <v>19</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="39">
-        <v>6</v>
-      </c>
-      <c r="R21" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S21" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T21" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="44">
-        <v>20</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="39">
-        <v>6</v>
-      </c>
-      <c r="R22" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S22" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T22" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="44">
-        <v>21</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="P23" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q23" s="39">
-        <v>6</v>
-      </c>
-      <c r="R23" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S23" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="T23" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="U23" s="39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H24" s="44">
-        <v>22</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="34" t="s">
+      <c r="T36" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="P24" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q24" s="39">
-        <v>6</v>
-      </c>
-      <c r="R24" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T24" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="U24" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="44">
-        <v>23</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="P25" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" s="39">
-        <v>6</v>
-      </c>
-      <c r="R25" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T25" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="U25" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" s="44">
-        <v>24</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="P26" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q26" s="39">
-        <v>6</v>
-      </c>
-      <c r="R26" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T26" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="U26" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" s="44">
-        <v>25</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q27" s="39">
-        <v>6</v>
-      </c>
-      <c r="R27" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S27" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T27" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="U27" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="H28" s="44">
-        <v>26</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q28" s="39">
-        <v>6</v>
-      </c>
-      <c r="R28" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S28" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T28" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="U28" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="H29" s="44">
-        <v>27</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="39">
-        <v>6</v>
-      </c>
-      <c r="R29" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S29" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T29" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="H30" s="44">
-        <v>28</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="39">
-        <v>6</v>
-      </c>
-      <c r="R30" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S30" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T30" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="U30" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" s="44">
-        <v>29</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="O31" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="P31" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q31" s="39">
-        <v>6</v>
-      </c>
-      <c r="R31" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S31" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T31" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="44">
-        <v>30</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>10</v>
-      </c>
-      <c r="R32" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="S32" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="T32" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="U32" s="39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="H33" s="44">
-        <v>31</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="O33" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q33" s="39">
-        <v>6</v>
-      </c>
-      <c r="R33" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S33" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T33" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="44">
-        <v>32</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="39"/>
-    </row>
-    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="44">
-        <v>33</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L35" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="P35" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q35" s="39">
-        <v>6</v>
-      </c>
-      <c r="R35" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S35" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T35" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="44">
-        <v>34</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="L36" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" s="34"/>
-      <c r="P36" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q36" s="39">
-        <v>6</v>
-      </c>
-      <c r="R36" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S36" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="T36" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="U36" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
+      <c r="U36" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="39"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="39"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="32"/>
+    </row>
+    <row r="39" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="39"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="32"/>
+    </row>
+    <row r="40" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="39"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="32"/>
+    </row>
+    <row r="41" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="39"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="32"/>
+    </row>
+    <row r="42" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="39"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="32"/>
+    </row>
+    <row r="43" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="39"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="32"/>
+    </row>
+    <row r="44" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="39"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="32"/>
+    </row>
+    <row r="45" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="39"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="32"/>
+    </row>
+    <row r="46" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="39"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="32"/>
+    </row>
+    <row r="47" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="39"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="32"/>
+    </row>
+    <row r="48" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="39"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="32"/>
+    </row>
+    <row r="49" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="39"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="32"/>
+    </row>
+    <row r="50" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="39"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="32"/>
+    </row>
+    <row r="51" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="39"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="32"/>
+    </row>
+    <row r="52" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="39"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="32"/>
+    </row>
+    <row r="53" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="39"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="32"/>
+    </row>
+    <row r="54" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="39"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="32"/>
+    </row>
+    <row r="55" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="39"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="32"/>
+    </row>
+    <row r="56" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="39"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="32"/>
+    </row>
+    <row r="57" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="39"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="32"/>
+    </row>
+    <row r="58" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="39"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="32"/>
+    </row>
+    <row r="59" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="38"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="39"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="32"/>
+    </row>
+    <row r="60" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="39"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="32"/>
+    </row>
+    <row r="61" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="39"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="32"/>
+    </row>
+    <row r="62" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="39"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="32"/>
+    </row>
+    <row r="63" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="39"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="32"/>
+    </row>
+    <row r="64" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="39"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="32"/>
+    </row>
+    <row r="65" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="39"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="32"/>
+    </row>
+    <row r="66" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="39"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="32"/>
+    </row>
+    <row r="67" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="39"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="32"/>
+    </row>
+    <row r="68" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="39"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="32"/>
+    </row>
+    <row r="69" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="39"/>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="32"/>
+    </row>
+    <row r="84" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+    <row r="85" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
+    <row r="86" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
+    <row r="87" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
+    <row r="88" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+    <row r="89" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
+    <row r="90" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
+    <row r="91" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
+    <row r="92" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
+    <row r="93" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
+    <row r="94" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
+    <row r="95" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
+    <row r="96" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
+    <row r="97" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
+    <row r="98" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
+    <row r="99" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
+    <row r="100" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
+    <row r="101" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
+    <row r="102" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
+    <row r="103" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
+    <row r="104" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
+    <row r="105" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
+    <row r="106" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+    <row r="107" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
+    <row r="108" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
+    <row r="109" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
+    <row r="110" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
+    <row r="111" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
+    <row r="112" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="27" t="s">
+    <row r="113" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="27" t="s">
+    <row r="114" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+    <row r="115" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
+    <row r="116" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="27" t="s">
+    <row r="117" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="27" t="s">
+    <row r="118" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="27" t="s">
+    <row r="119" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="27" t="s">
+    <row r="120" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
@@ -4950,25 +4887,25 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
+            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>M23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
+            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
+            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>K23 P23 I23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]DATOS!#REF!</xm:f>
+            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>N23</xm:sqref>
         </x14:dataValidation>
@@ -4989,45 +4926,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.3984375" style="1"/>
+    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5044,7 +4969,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5068,7 +4993,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5087,7 +5012,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5106,7 +5031,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5122,7 +5047,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5139,7 +5064,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5156,7 +5081,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5171,7 +5096,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5186,7 +5111,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5201,7 +5126,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5216,7 +5141,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5231,7 +5156,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5246,7 +5171,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5261,7 +5186,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5276,7 +5201,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5291,7 +5216,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5305,7 +5230,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5319,7 +5244,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5333,7 +5258,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5347,7 +5272,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5362,7 +5287,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5377,7 +5302,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5392,7 +5317,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5407,7 +5332,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5422,7 +5347,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5437,7 +5362,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5452,7 +5377,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5467,7 +5392,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5482,7 +5407,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5497,7 +5422,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5512,7 +5437,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5527,7 +5452,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5542,7 +5467,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5557,7 +5482,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5572,7 +5497,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5587,7 +5512,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5602,7 +5527,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5617,7 +5542,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5632,7 +5557,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5647,7 +5572,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5662,7 +5587,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5677,7 +5602,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5692,7 +5617,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5707,7 +5632,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5722,7 +5647,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5737,7 +5662,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5752,7 +5677,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5767,7 +5692,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5779,7 +5704,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5791,7 +5716,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5804,7 +5729,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5817,7 +5742,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5830,7 +5755,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5843,7 +5768,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5856,7 +5781,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5869,7 +5794,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5882,7 +5807,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5895,7 +5820,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5908,7 +5833,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5921,7 +5846,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5934,7 +5859,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5947,7 +5872,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5960,7 +5885,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5973,7 +5898,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5986,7 +5911,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5999,7 +5924,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6012,7 +5937,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6025,7 +5950,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6038,7 +5963,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6051,7 +5976,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6065,7 +5990,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6079,7 +6004,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6093,7 +6018,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6107,7 +6032,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6121,7 +6046,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6135,7 +6060,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6149,7 +6074,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6163,7 +6088,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6177,7 +6102,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6191,7 +6116,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6205,7 +6130,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6219,7 +6144,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6233,7 +6158,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6247,7 +6172,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6261,7 +6186,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6275,7 +6200,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6289,7 +6214,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6303,7 +6228,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6317,7 +6242,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6331,7 +6256,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6345,7 +6270,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6359,7 +6284,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6373,7 +6298,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6387,7 +6312,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6401,7 +6326,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6415,7 +6340,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6429,7 +6354,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6443,7 +6368,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6457,7 +6382,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6471,7 +6396,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6485,7 +6410,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6499,7 +6424,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6513,7 +6438,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6527,7 +6452,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6541,7 +6466,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6555,7 +6480,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6569,7 +6494,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6583,7 +6508,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6597,7 +6522,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6611,7 +6536,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6625,7 +6550,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6639,7 +6564,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6653,7 +6578,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6667,7 +6592,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6681,7 +6606,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6695,7 +6620,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6709,7 +6634,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6723,7 +6648,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6737,7 +6662,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6751,7 +6676,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6765,7 +6690,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6779,7 +6704,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6793,7 +6718,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6807,7 +6732,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6821,7 +6746,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6835,7 +6760,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6849,7 +6774,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6863,7 +6788,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6877,7 +6802,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6891,7 +6816,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6905,7 +6830,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6919,7 +6844,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado11/guion06/Escaleta_MA_11_06_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion06/Escaleta_MA_11_06_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado11\guion06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23800" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -21,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -913,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1226,6 +1221,111 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,111 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,15 +1368,19 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Hoja2"/>
-      <sheetName val="DATOS"/>
+      <sheetName val="DATOS]\Users\Andre\Documents\Freelanc"/>
+      <sheetName val="DATOS]\Users\Andre\Documents\Freelanc"/>
+      <sheetName val="DATOS]\Users\Andre\Documents\Freelanc"/>
+      <sheetName val="DATOS]\Users\Andre\Documents\Freelanc"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1430,7 +1429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1482,7 +1481,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1710,143 +1709,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="31" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.265625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="37" customWidth="1"/>
     <col min="9" max="9" width="11" style="37" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="25" customWidth="1"/>
-    <col min="13" max="14" width="9.265625" style="25" customWidth="1"/>
-    <col min="15" max="15" width="37.86328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3984375" style="16" customWidth="1"/>
-    <col min="17" max="17" width="2.73046875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="3.53125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="11.9296875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="39.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="25" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="37.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="3.5" style="25" customWidth="1"/>
+    <col min="19" max="19" width="12" style="25" customWidth="1"/>
+    <col min="20" max="20" width="39.83203125" style="6" customWidth="1"/>
     <col min="21" max="21" width="12" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="50" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="17.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="55"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="57"/>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="65" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="46" t="s">
         <v>148</v>
       </c>
       <c r="H3" s="13">
@@ -1874,42 +1873,42 @@
       <c r="P3" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="52">
         <v>6</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="R3" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="T3" s="79" t="s">
+      <c r="T3" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="U3" s="77" t="s">
+      <c r="U3" s="52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="48" t="s">
         <v>289</v>
       </c>
       <c r="H4" s="35">
@@ -1937,42 +1936,42 @@
       <c r="P4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q4" s="80">
+      <c r="Q4" s="55">
         <v>6</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="82" t="s">
+      <c r="T4" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H5" s="35">
@@ -2000,40 +1999,40 @@
       <c r="P5" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="55">
         <v>6</v>
       </c>
-      <c r="R5" s="81" t="s">
+      <c r="R5" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T5" s="82" t="s">
+      <c r="T5" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="48" t="s">
         <v>164</v>
       </c>
       <c r="H6" s="35">
@@ -2061,42 +2060,42 @@
       <c r="P6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="Q6" s="80">
+      <c r="Q6" s="55">
         <v>10</v>
       </c>
-      <c r="R6" s="81" t="s">
+      <c r="R6" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="S6" s="80" t="s">
+      <c r="S6" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="T6" s="82" t="s">
+      <c r="T6" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="55" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="48" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="35">
@@ -2124,42 +2123,42 @@
       <c r="P7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" s="80">
+      <c r="Q7" s="55">
         <v>6</v>
       </c>
-      <c r="R7" s="81" t="s">
+      <c r="R7" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S7" s="80" t="s">
+      <c r="S7" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T7" s="82" t="s">
+      <c r="T7" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="U7" s="80" t="s">
+      <c r="U7" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="65" t="s">
+    <row r="8" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="48" t="s">
         <v>173</v>
       </c>
       <c r="H8" s="35">
@@ -2187,42 +2186,42 @@
       <c r="P8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q8" s="80">
+      <c r="Q8" s="55">
         <v>6</v>
       </c>
-      <c r="R8" s="81" t="s">
+      <c r="R8" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S8" s="80" t="s">
+      <c r="S8" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T8" s="82" t="s">
+      <c r="T8" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="U8" s="80" t="s">
+      <c r="U8" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="48" t="s">
         <v>176</v>
       </c>
       <c r="H9" s="35">
@@ -2250,42 +2249,42 @@
       <c r="P9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q9" s="80">
+      <c r="Q9" s="55">
         <v>6</v>
       </c>
-      <c r="R9" s="81" t="s">
+      <c r="R9" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T9" s="82" t="s">
+      <c r="T9" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="U9" s="80" t="s">
+      <c r="U9" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="48" t="s">
         <v>180</v>
       </c>
       <c r="H10" s="35">
@@ -2313,40 +2312,40 @@
       <c r="P10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q10" s="80">
+      <c r="Q10" s="55">
         <v>6</v>
       </c>
-      <c r="R10" s="81" t="s">
+      <c r="R10" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S10" s="80" t="s">
+      <c r="S10" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T10" s="82" t="s">
+      <c r="T10" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="U10" s="80" t="s">
+      <c r="U10" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="48" t="s">
         <v>185</v>
       </c>
       <c r="H11" s="35">
@@ -2374,40 +2373,40 @@
       <c r="P11" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q11" s="80">
+      <c r="Q11" s="55">
         <v>6</v>
       </c>
-      <c r="R11" s="81" t="s">
+      <c r="R11" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="S11" s="80" t="s">
+      <c r="S11" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="T11" s="82" t="s">
+      <c r="T11" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="U11" s="80" t="s">
+      <c r="U11" s="55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73" t="s">
+      <c r="F12" s="47"/>
+      <c r="G12" s="48" t="s">
         <v>181</v>
       </c>
       <c r="H12" s="35">
@@ -2435,38 +2434,38 @@
       <c r="P12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q12" s="80">
+      <c r="Q12" s="55">
         <v>6</v>
       </c>
-      <c r="R12" s="81" t="s">
+      <c r="R12" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S12" s="80" t="s">
+      <c r="S12" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T12" s="82" t="s">
+      <c r="T12" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="65" t="s">
+    <row r="13" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48" t="s">
         <v>187</v>
       </c>
       <c r="H13" s="35">
@@ -2494,40 +2493,40 @@
       <c r="P13" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q13" s="80">
+      <c r="Q13" s="55">
         <v>10</v>
       </c>
-      <c r="R13" s="81" t="s">
+      <c r="R13" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="S13" s="80" t="s">
+      <c r="S13" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="T13" s="82" t="s">
+      <c r="T13" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="U13" s="80" t="s">
+      <c r="U13" s="55" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="65" t="s">
+    <row r="14" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73" t="s">
+      <c r="F14" s="47"/>
+      <c r="G14" s="48" t="s">
         <v>191</v>
       </c>
       <c r="H14" s="35">
@@ -2555,40 +2554,40 @@
       <c r="P14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q14" s="80">
+      <c r="Q14" s="55">
         <v>6</v>
       </c>
-      <c r="R14" s="81" t="s">
+      <c r="R14" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S14" s="80" t="s">
+      <c r="S14" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T14" s="82" t="s">
+      <c r="T14" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="U14" s="80" t="s">
+      <c r="U14" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48" t="s">
         <v>195</v>
       </c>
       <c r="H15" s="35">
@@ -2616,40 +2615,40 @@
       <c r="P15" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q15" s="80">
+      <c r="Q15" s="55">
         <v>6</v>
       </c>
-      <c r="R15" s="81" t="s">
+      <c r="R15" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S15" s="80" t="s">
+      <c r="S15" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T15" s="82" t="s">
+      <c r="T15" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="U15" s="80" t="s">
+      <c r="U15" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="65" t="s">
+    <row r="16" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="47"/>
+      <c r="G16" s="48" t="s">
         <v>198</v>
       </c>
       <c r="H16" s="35">
@@ -2677,40 +2676,40 @@
       <c r="P16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q16" s="80">
+      <c r="Q16" s="55">
         <v>6</v>
       </c>
-      <c r="R16" s="81" t="s">
+      <c r="R16" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S16" s="80" t="s">
+      <c r="S16" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T16" s="82" t="s">
+      <c r="T16" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="U16" s="80" t="s">
+      <c r="U16" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="65" t="s">
+    <row r="17" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A17" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="48" t="s">
         <v>203</v>
       </c>
       <c r="H17" s="35">
@@ -2738,40 +2737,40 @@
       <c r="P17" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q17" s="80">
+      <c r="Q17" s="55">
         <v>6</v>
       </c>
-      <c r="R17" s="81" t="s">
+      <c r="R17" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S17" s="80" t="s">
+      <c r="S17" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T17" s="82" t="s">
+      <c r="T17" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="U17" s="80" t="s">
+      <c r="U17" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="48" t="s">
         <v>201</v>
       </c>
       <c r="H18" s="35">
@@ -2799,40 +2798,40 @@
       <c r="P18" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q18" s="80">
+      <c r="Q18" s="55">
         <v>6</v>
       </c>
-      <c r="R18" s="81" t="s">
+      <c r="R18" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S18" s="80" t="s">
+      <c r="S18" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T18" s="82" t="s">
+      <c r="T18" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="U18" s="80" t="s">
+      <c r="U18" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="65" t="s">
+    <row r="19" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73" t="s">
+      <c r="F19" s="47"/>
+      <c r="G19" s="48" t="s">
         <v>206</v>
       </c>
       <c r="H19" s="35">
@@ -2860,40 +2859,40 @@
       <c r="P19" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="Q19" s="80">
+      <c r="Q19" s="55">
         <v>6</v>
       </c>
-      <c r="R19" s="81" t="s">
+      <c r="R19" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="S19" s="80" t="s">
+      <c r="S19" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="T19" s="82" t="s">
+      <c r="T19" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="U19" s="80" t="s">
+      <c r="U19" s="55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="65" t="s">
+    <row r="20" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="48" t="s">
         <v>209</v>
       </c>
       <c r="H20" s="35">
@@ -2921,40 +2920,40 @@
       <c r="P20" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q20" s="80">
+      <c r="Q20" s="55">
         <v>6</v>
       </c>
-      <c r="R20" s="81" t="s">
+      <c r="R20" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="S20" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T20" s="82" t="s">
+      <c r="T20" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="U20" s="80" t="s">
+      <c r="U20" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73" t="s">
+      <c r="F21" s="47"/>
+      <c r="G21" s="48" t="s">
         <v>213</v>
       </c>
       <c r="H21" s="35">
@@ -2982,40 +2981,40 @@
       <c r="P21" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q21" s="80">
+      <c r="Q21" s="55">
         <v>6</v>
       </c>
-      <c r="R21" s="81" t="s">
+      <c r="R21" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S21" s="80" t="s">
+      <c r="S21" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T21" s="82" t="s">
+      <c r="T21" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="U21" s="80" t="s">
+      <c r="U21" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+    <row r="22" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="48" t="s">
         <v>216</v>
       </c>
       <c r="H22" s="35">
@@ -3043,40 +3042,40 @@
       <c r="P22" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q22" s="80">
+      <c r="Q22" s="55">
         <v>6</v>
       </c>
-      <c r="R22" s="81" t="s">
+      <c r="R22" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S22" s="80" t="s">
+      <c r="S22" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T22" s="82" t="s">
+      <c r="T22" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="U22" s="80" t="s">
+      <c r="U22" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="65" t="s">
+    <row r="23" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A23" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="76" t="s">
+      <c r="F23" s="47"/>
+      <c r="G23" s="51" t="s">
         <v>137</v>
       </c>
       <c r="H23" s="35">
@@ -3104,42 +3103,42 @@
       <c r="P23" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q23" s="80">
+      <c r="Q23" s="55">
         <v>6</v>
       </c>
-      <c r="R23" s="81" t="s">
+      <c r="R23" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="80" t="s">
+      <c r="S23" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="T23" s="82" t="s">
+      <c r="T23" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="U23" s="80" t="s">
+      <c r="U23" s="55" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A24" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G24" s="48" t="s">
         <v>237</v>
       </c>
       <c r="H24" s="35">
@@ -3167,40 +3166,40 @@
       <c r="P24" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q24" s="80">
+      <c r="Q24" s="55">
         <v>6</v>
       </c>
-      <c r="R24" s="81" t="s">
+      <c r="R24" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S24" s="80" t="s">
+      <c r="S24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T24" s="82" t="s">
+      <c r="T24" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="U24" s="80" t="s">
+      <c r="U24" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="65" t="s">
+    <row r="25" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A25" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="48" t="s">
         <v>240</v>
       </c>
       <c r="H25" s="35">
@@ -3228,40 +3227,40 @@
       <c r="P25" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q25" s="80">
+      <c r="Q25" s="55">
         <v>6</v>
       </c>
-      <c r="R25" s="81" t="s">
+      <c r="R25" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S25" s="80" t="s">
+      <c r="S25" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T25" s="82" t="s">
+      <c r="T25" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="U25" s="80" t="s">
+      <c r="U25" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A26" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48" t="s">
         <v>244</v>
       </c>
       <c r="H26" s="35">
@@ -3289,42 +3288,42 @@
       <c r="P26" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q26" s="80">
+      <c r="Q26" s="55">
         <v>6</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S26" s="80" t="s">
+      <c r="S26" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T26" s="82" t="s">
+      <c r="T26" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="U26" s="80" t="s">
+      <c r="U26" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="65" t="s">
+    <row r="27" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H27" s="35">
@@ -3352,40 +3351,40 @@
       <c r="P27" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q27" s="80">
+      <c r="Q27" s="55">
         <v>6</v>
       </c>
-      <c r="R27" s="81" t="s">
+      <c r="R27" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S27" s="80" t="s">
+      <c r="S27" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T27" s="82" t="s">
+      <c r="T27" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="U27" s="80" t="s">
+      <c r="U27" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="65" t="s">
+    <row r="28" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A28" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73" t="s">
+      <c r="F28" s="47"/>
+      <c r="G28" s="48" t="s">
         <v>258</v>
       </c>
       <c r="H28" s="35">
@@ -3413,40 +3412,40 @@
       <c r="P28" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="Q28" s="80">
+      <c r="Q28" s="55">
         <v>6</v>
       </c>
-      <c r="R28" s="81" t="s">
+      <c r="R28" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S28" s="80" t="s">
+      <c r="S28" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="82" t="s">
+      <c r="T28" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="U28" s="80" t="s">
+      <c r="U28" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="65" t="s">
+    <row r="29" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A29" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73" t="s">
+      <c r="F29" s="47"/>
+      <c r="G29" s="48" t="s">
         <v>268</v>
       </c>
       <c r="H29" s="35">
@@ -3474,40 +3473,40 @@
       <c r="P29" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q29" s="80">
+      <c r="Q29" s="55">
         <v>6</v>
       </c>
-      <c r="R29" s="81" t="s">
+      <c r="R29" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S29" s="80" t="s">
+      <c r="S29" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T29" s="82" t="s">
+      <c r="T29" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="U29" s="80" t="s">
+      <c r="U29" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="65" t="s">
+    <row r="30" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A30" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73" t="s">
+      <c r="F30" s="47"/>
+      <c r="G30" s="48" t="s">
         <v>261</v>
       </c>
       <c r="H30" s="35">
@@ -3535,40 +3534,40 @@
       <c r="P30" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q30" s="80">
+      <c r="Q30" s="55">
         <v>6</v>
       </c>
-      <c r="R30" s="81" t="s">
+      <c r="R30" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S30" s="80" t="s">
+      <c r="S30" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T30" s="82" t="s">
+      <c r="T30" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="U30" s="80" t="s">
+      <c r="U30" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="65" t="s">
+    <row r="31" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A31" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73" t="s">
+      <c r="F31" s="47"/>
+      <c r="G31" s="48" t="s">
         <v>255</v>
       </c>
       <c r="H31" s="35">
@@ -3596,38 +3595,38 @@
       <c r="P31" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q31" s="80">
+      <c r="Q31" s="55">
         <v>6</v>
       </c>
-      <c r="R31" s="81" t="s">
+      <c r="R31" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S31" s="80" t="s">
+      <c r="S31" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T31" s="82" t="s">
+      <c r="T31" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="U31" s="80" t="s">
+      <c r="U31" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="65" t="s">
+    <row r="32" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A32" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48" t="s">
         <v>219</v>
       </c>
       <c r="H32" s="35">
@@ -3655,38 +3654,38 @@
       <c r="P32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q32" s="80">
+      <c r="Q32" s="55">
         <v>10</v>
       </c>
-      <c r="R32" s="81" t="s">
+      <c r="R32" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="S32" s="80" t="s">
+      <c r="S32" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="T32" s="82" t="s">
+      <c r="T32" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="U32" s="80" t="s">
+      <c r="U32" s="55" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="65" t="s">
+    <row r="33" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A33" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73" t="s">
+      <c r="E33" s="49"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48" t="s">
         <v>223</v>
       </c>
       <c r="H33" s="35">
@@ -3714,38 +3713,38 @@
       <c r="P33" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q33" s="80">
+      <c r="Q33" s="55">
         <v>6</v>
       </c>
-      <c r="R33" s="81" t="s">
+      <c r="R33" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="S33" s="80" t="s">
+      <c r="S33" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="T33" s="82" t="s">
+      <c r="T33" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="U33" s="80" t="s">
+      <c r="U33" s="55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="65" t="s">
+    <row r="34" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A34" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="74" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73" t="s">
+      <c r="F34" s="47"/>
+      <c r="G34" s="48" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="35">
@@ -3767,28 +3766,28 @@
       <c r="P34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="80"/>
-    </row>
-    <row r="35" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="65" t="s">
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="55"/>
+    </row>
+    <row r="35" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A35" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="74" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73" t="s">
+      <c r="F35" s="47"/>
+      <c r="G35" s="48" t="s">
         <v>144</v>
       </c>
       <c r="H35" s="35">
@@ -3816,38 +3815,38 @@
       <c r="P35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q35" s="80">
+      <c r="Q35" s="55">
         <v>6</v>
       </c>
-      <c r="R35" s="81" t="s">
+      <c r="R35" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S35" s="80" t="s">
+      <c r="S35" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T35" s="82" t="s">
+      <c r="T35" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="U35" s="80" t="s">
+      <c r="U35" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="65" t="s">
+    <row r="36" spans="1:21" ht="17.25" customHeight="1">
+      <c r="A36" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="74" t="s">
+      <c r="D36" s="50"/>
+      <c r="E36" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73" t="s">
+      <c r="F36" s="47"/>
+      <c r="G36" s="48" t="s">
         <v>145</v>
       </c>
       <c r="H36" s="35">
@@ -3871,23 +3870,23 @@
       <c r="P36" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q36" s="80">
+      <c r="Q36" s="55">
         <v>6</v>
       </c>
-      <c r="R36" s="81" t="s">
+      <c r="R36" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S36" s="80" t="s">
+      <c r="S36" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T36" s="82" t="s">
+      <c r="T36" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="U36" s="80" t="s">
+      <c r="U36" s="55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="17.25" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="39"/>
       <c r="C37" s="3"/>
@@ -3910,7 +3909,7 @@
       <c r="T37" s="34"/>
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" ht="17.25" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="39"/>
       <c r="C38" s="3"/>
@@ -3933,7 +3932,7 @@
       <c r="T38" s="34"/>
       <c r="U38" s="32"/>
     </row>
-    <row r="39" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="39"/>
       <c r="C39" s="3"/>
@@ -3956,7 +3955,7 @@
       <c r="T39" s="34"/>
       <c r="U39" s="32"/>
     </row>
-    <row r="40" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" ht="17.25" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="39"/>
       <c r="C40" s="3"/>
@@ -3979,7 +3978,7 @@
       <c r="T40" s="34"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="17.25" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="39"/>
       <c r="C41" s="3"/>
@@ -4002,7 +4001,7 @@
       <c r="T41" s="34"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" ht="17.25" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="39"/>
       <c r="C42" s="3"/>
@@ -4025,7 +4024,7 @@
       <c r="T42" s="34"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" ht="17.25" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="39"/>
       <c r="C43" s="3"/>
@@ -4048,7 +4047,7 @@
       <c r="T43" s="34"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" ht="17.25" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="39"/>
       <c r="C44" s="3"/>
@@ -4071,7 +4070,7 @@
       <c r="T44" s="34"/>
       <c r="U44" s="32"/>
     </row>
-    <row r="45" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" ht="17.25" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="39"/>
       <c r="C45" s="3"/>
@@ -4094,7 +4093,7 @@
       <c r="T45" s="34"/>
       <c r="U45" s="32"/>
     </row>
-    <row r="46" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" ht="17.25" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="39"/>
       <c r="C46" s="3"/>
@@ -4117,7 +4116,7 @@
       <c r="T46" s="34"/>
       <c r="U46" s="32"/>
     </row>
-    <row r="47" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="17.25" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="3"/>
@@ -4140,7 +4139,7 @@
       <c r="T47" s="34"/>
       <c r="U47" s="32"/>
     </row>
-    <row r="48" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" ht="17.25" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="39"/>
       <c r="C48" s="3"/>
@@ -4163,7 +4162,7 @@
       <c r="T48" s="34"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="17.25" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="39"/>
       <c r="C49" s="3"/>
@@ -4186,7 +4185,7 @@
       <c r="T49" s="34"/>
       <c r="U49" s="32"/>
     </row>
-    <row r="50" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="17.25" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="39"/>
       <c r="C50" s="3"/>
@@ -4209,7 +4208,7 @@
       <c r="T50" s="34"/>
       <c r="U50" s="32"/>
     </row>
-    <row r="51" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" ht="17.25" customHeight="1">
       <c r="A51" s="38"/>
       <c r="B51" s="39"/>
       <c r="C51" s="3"/>
@@ -4232,7 +4231,7 @@
       <c r="T51" s="34"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="17.25" customHeight="1">
       <c r="A52" s="38"/>
       <c r="B52" s="39"/>
       <c r="C52" s="3"/>
@@ -4255,7 +4254,7 @@
       <c r="T52" s="34"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" ht="17.25" customHeight="1">
       <c r="A53" s="38"/>
       <c r="B53" s="39"/>
       <c r="C53" s="3"/>
@@ -4278,7 +4277,7 @@
       <c r="T53" s="34"/>
       <c r="U53" s="32"/>
     </row>
-    <row r="54" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="17.25" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="39"/>
       <c r="C54" s="3"/>
@@ -4301,7 +4300,7 @@
       <c r="T54" s="34"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="17.25" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="39"/>
       <c r="C55" s="3"/>
@@ -4324,7 +4323,7 @@
       <c r="T55" s="34"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="17.25" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="39"/>
       <c r="C56" s="3"/>
@@ -4347,7 +4346,7 @@
       <c r="T56" s="34"/>
       <c r="U56" s="32"/>
     </row>
-    <row r="57" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" ht="17.25" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="39"/>
       <c r="C57" s="3"/>
@@ -4370,7 +4369,7 @@
       <c r="T57" s="34"/>
       <c r="U57" s="32"/>
     </row>
-    <row r="58" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" ht="17.25" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="39"/>
       <c r="C58" s="3"/>
@@ -4393,7 +4392,7 @@
       <c r="T58" s="34"/>
       <c r="U58" s="32"/>
     </row>
-    <row r="59" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" ht="17.25" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="39"/>
       <c r="C59" s="3"/>
@@ -4416,7 +4415,7 @@
       <c r="T59" s="34"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="17.25" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="39"/>
       <c r="C60" s="3"/>
@@ -4439,7 +4438,7 @@
       <c r="T60" s="34"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="17.25" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="39"/>
       <c r="C61" s="3"/>
@@ -4462,7 +4461,7 @@
       <c r="T61" s="34"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="17.25" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="39"/>
       <c r="C62" s="3"/>
@@ -4485,7 +4484,7 @@
       <c r="T62" s="34"/>
       <c r="U62" s="32"/>
     </row>
-    <row r="63" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="17.25" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="39"/>
       <c r="C63" s="3"/>
@@ -4508,7 +4507,7 @@
       <c r="T63" s="34"/>
       <c r="U63" s="32"/>
     </row>
-    <row r="64" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" ht="17.25" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="39"/>
       <c r="C64" s="3"/>
@@ -4531,7 +4530,7 @@
       <c r="T64" s="34"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" ht="17.25" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="39"/>
       <c r="C65" s="3"/>
@@ -4554,7 +4553,7 @@
       <c r="T65" s="34"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" ht="17.25" customHeight="1">
       <c r="A66" s="38"/>
       <c r="B66" s="39"/>
       <c r="C66" s="3"/>
@@ -4577,7 +4576,7 @@
       <c r="T66" s="34"/>
       <c r="U66" s="32"/>
     </row>
-    <row r="67" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" ht="17.25" customHeight="1">
       <c r="A67" s="38"/>
       <c r="B67" s="39"/>
       <c r="C67" s="3"/>
@@ -4600,7 +4599,7 @@
       <c r="T67" s="34"/>
       <c r="U67" s="32"/>
     </row>
-    <row r="68" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" ht="17.25" customHeight="1">
       <c r="A68" s="38"/>
       <c r="B68" s="39"/>
       <c r="C68" s="3"/>
@@ -4623,7 +4622,7 @@
       <c r="T68" s="34"/>
       <c r="U68" s="32"/>
     </row>
-    <row r="69" spans="1:21" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" ht="17.25" customHeight="1">
       <c r="A69" s="38"/>
       <c r="B69" s="39"/>
       <c r="C69" s="3"/>
@@ -4646,187 +4645,187 @@
       <c r="T69" s="34"/>
       <c r="U69" s="32"/>
     </row>
-    <row r="84" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" ht="17.25" customHeight="1">
       <c r="A84" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" ht="17.25" customHeight="1">
       <c r="A85" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" ht="17.25" customHeight="1">
       <c r="A86" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" ht="17.25" customHeight="1">
       <c r="A87" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" ht="17.25" customHeight="1">
       <c r="A88" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" ht="17.25" customHeight="1">
       <c r="A89" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" ht="17.25" customHeight="1">
       <c r="A90" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" ht="17.25" customHeight="1">
       <c r="A91" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" ht="17.25" customHeight="1">
       <c r="A92" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" ht="17.25" customHeight="1">
       <c r="A93" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" ht="17.25" customHeight="1">
       <c r="A94" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" ht="17.25" customHeight="1">
       <c r="A95" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" ht="17.25" customHeight="1">
       <c r="A96" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" ht="17.25" customHeight="1">
       <c r="A97" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" ht="17.25" customHeight="1">
       <c r="A98" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" ht="17.25" customHeight="1">
       <c r="A99" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" ht="17.25" customHeight="1">
       <c r="A100" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" ht="17.25" customHeight="1">
       <c r="A101" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" ht="17.25" customHeight="1">
       <c r="A102" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" ht="17.25" customHeight="1">
       <c r="A103" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" ht="17.25" customHeight="1">
       <c r="A104" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" ht="17.25" customHeight="1">
       <c r="A105" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" ht="17.25" customHeight="1">
       <c r="A106" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" ht="17.25" customHeight="1">
       <c r="A107" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" ht="17.25" customHeight="1">
       <c r="A108" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" ht="17.25" customHeight="1">
       <c r="A109" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" ht="17.25" customHeight="1">
       <c r="A110" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" ht="17.25" customHeight="1">
       <c r="A111" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" ht="17.25" customHeight="1">
       <c r="A112" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" ht="17.25" customHeight="1">
       <c r="A113" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" ht="17.25" customHeight="1">
       <c r="A114" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" ht="17.25" customHeight="1">
       <c r="A115" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" ht="17.25" customHeight="1">
       <c r="A116" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" ht="17.25" customHeight="1">
       <c r="A117" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" ht="17.25" customHeight="1">
       <c r="A118" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" ht="17.25" customHeight="1">
       <c r="A119" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" ht="17.25" customHeight="1">
       <c r="A120" s="22" t="s">
         <v>115</v>
       </c>
@@ -4836,6 +4835,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4850,12 +4855,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4887,25 +4886,25 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
+            <xm:f>'[1]DATOS]\Users\Andre\Documents\Freelanc'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>M23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
+            <xm:f>'[1]DATOS]\Users\Andre\Documents\Freelanc'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
+            <xm:f>'[1]DATOS]\Users\Andre\Documents\Freelanc'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>K23 P23 I23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Andre\Documents\Freelance\Planeta\Undécimo\Tema 06\[Escaleta_MA_11_06_CO.xlsx]DATOS'!#REF!</xm:f>
+            <xm:f>'[1]DATOS]\Users\Andre\Documents\Freelanc'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>N23</xm:sqref>
         </x14:dataValidation>
@@ -4932,27 +4931,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1"/>
+    <col min="14" max="14" width="24.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4993,7 +4992,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5012,7 +5011,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5031,7 +5030,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5047,7 +5046,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5064,7 +5063,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5081,7 +5080,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5096,7 +5095,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5111,7 +5110,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5126,7 +5125,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5141,7 +5140,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5156,7 +5155,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5171,7 +5170,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5186,7 +5185,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5201,7 +5200,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5216,7 +5215,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5230,7 +5229,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5244,7 +5243,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5258,7 +5257,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5272,7 +5271,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5287,7 +5286,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5302,7 +5301,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5317,7 +5316,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5332,7 +5331,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5347,7 +5346,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5362,7 +5361,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5377,7 +5376,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5392,7 +5391,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5407,7 +5406,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5422,7 +5421,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5437,7 +5436,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5452,7 +5451,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5467,7 +5466,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5482,7 +5481,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5497,7 +5496,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5512,7 +5511,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5527,7 +5526,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5542,7 +5541,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5557,7 +5556,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5572,7 +5571,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5587,7 +5586,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5602,7 +5601,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5617,7 +5616,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5632,7 +5631,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5647,7 +5646,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5662,7 +5661,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5677,7 +5676,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5692,7 +5691,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5704,7 +5703,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5716,7 +5715,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5729,7 +5728,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5742,7 +5741,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5755,7 +5754,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5768,7 +5767,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5781,7 +5780,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5794,7 +5793,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5807,7 +5806,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5820,7 +5819,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5833,7 +5832,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5846,7 +5845,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5859,7 +5858,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5872,7 +5871,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5885,7 +5884,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5898,7 +5897,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5911,7 +5910,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5924,7 +5923,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5937,7 +5936,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5950,7 +5949,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5963,7 +5962,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5976,7 +5975,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5990,7 +5989,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6004,7 +6003,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6018,7 +6017,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6032,7 +6031,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6046,7 +6045,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6060,7 +6059,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6074,7 +6073,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6088,7 +6087,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6102,7 +6101,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6116,7 +6115,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6130,7 +6129,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6144,7 +6143,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6158,7 +6157,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6172,7 +6171,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6186,7 +6185,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6200,7 +6199,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6214,7 +6213,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6228,7 +6227,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6242,7 +6241,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6256,7 +6255,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6270,7 +6269,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6284,7 +6283,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6298,7 +6297,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6312,7 +6311,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6326,7 +6325,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6340,7 +6339,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6354,7 +6353,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6368,7 +6367,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6382,7 +6381,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6396,7 +6395,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6410,7 +6409,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6424,7 +6423,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6438,7 +6437,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6452,7 +6451,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6466,7 +6465,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6480,7 +6479,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6494,7 +6493,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6508,7 +6507,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6522,7 +6521,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6536,7 +6535,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6550,7 +6549,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6564,7 +6563,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6578,7 +6577,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6592,7 +6591,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6606,7 +6605,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6620,7 +6619,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6634,7 +6633,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6648,7 +6647,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6662,7 +6661,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6676,7 +6675,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6690,7 +6689,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6704,7 +6703,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6718,7 +6717,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6732,7 +6731,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6746,7 +6745,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6760,7 +6759,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6774,7 +6773,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6788,7 +6787,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6802,7 +6801,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6816,7 +6815,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6830,7 +6829,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6844,7 +6843,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
